--- a/ozone/tests/examples/art7_submissions.xlsx
+++ b/ozone/tests/examples/art7_submissions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edw\projects\ozone\src\ozone\tests\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B057DDB-E784-43B8-8FF5-EA1B807538A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2598FE1-238E-4043-A27A-BEC1CC779856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="146">
   <si>
     <t>CntryID</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>A7 Data forms</t>
+  </si>
+  <si>
+    <t>ReportingOfficer</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>CreatedByUserEmail</t>
+  </si>
+  <si>
+    <t>secretariat@example.com</t>
   </si>
 </sst>
 </file>
@@ -496,13 +508,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +841,7 @@
     <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,8 +935,17 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1014,6 +1036,9 @@
       </c>
       <c r="AE2" s="5">
         <v>40543</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
